--- a/biology/Zoologie/Buthus_occidentalis/Buthus_occidentalis.xlsx
+++ b/biology/Zoologie/Buthus_occidentalis/Buthus_occidentalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buthus occidentalis est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Mauritanie[1]. Elle se rencontre dans le Dakhlet Nouadhibou vers la côte.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Mauritanie. Elle se rencontre dans le Dakhlet Nouadhibou vers la côte.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 62,9 mm et le mâle paratype 73,2 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 62,9 mm et le mâle paratype 73,2 mm.
 Le telson (dernier segment de la queue) possède un aiguillon aigu et canulé à deux orifices  reliés chacun à une glande venimeuse.
 </t>
         </is>
@@ -574,9 +590,11 @@
           <t>Venin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son venin est neurotoxique, seulement moyennement toxique mais il peut cependant être mortel pour l'homme. Les effets d'une envenimation vont d'une simple douleur vive à des problèmes cardio-vasculaires ou un œdème pulmonaire voire un décès. En cas de piqûre, il faut bien sûr aller immédiatement dans un lieu médicalisé. Il existe un sérum antivenimeux[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son venin est neurotoxique, seulement moyennement toxique mais il peut cependant être mortel pour l'homme. Les effets d'une envenimation vont d'une simple douleur vive à des problèmes cardio-vasculaires ou un œdème pulmonaire voire un décès. En cas de piqûre, il faut bien sûr aller immédiatement dans un lieu médicalisé. Il existe un sérum antivenimeux.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lourenço, Sun &amp; Zhu, 2009 : « About the presence of the genus Buthus Leach, 1815 in Mauritania, with description of a new species (Scorpiones, Buthidae). » Boletín de la Sociedad Entomológica Aragonesa, no 44, p. 71-75 (texte intégral).</t>
         </is>
